--- a/data/processed/state_overviews/arkansas_overview.xlsx
+++ b/data/processed/state_overviews/arkansas_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>843</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Arkansas County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>5</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Ashley County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>5</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Baxter County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>17</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Benton County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>59</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Boone County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>16</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Bradley County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Calhoun County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Carroll County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>13</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Chicot County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>5</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Clark County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>3</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Clay County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>2</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Cleburne County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>5</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Columbia County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>10</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Conway County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>8</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Craighead County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>28</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Crawford County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>14</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Crittenden County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>10</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Cross County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>5</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Desha County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>5</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Drew County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>5</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Faulkner County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>21</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Franklin County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>3</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Fulton County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>1</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Garland County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>27</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Grant County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>2</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Greene County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>9</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Hempstead County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>3</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Hot Spring County</t>
         </is>
       </c>
-      <c r="B29">
-        <v>5</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Howard County</t>
         </is>
       </c>
-      <c r="B30">
-        <v>3</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Independence County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>19</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Izard County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>7</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>Jackson County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>4</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>Jefferson County</t>
         </is>
       </c>
-      <c r="B34">
-        <v>23</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>Johnson County</t>
         </is>
       </c>
-      <c r="B35">
-        <v>6</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>Lawrence County</t>
         </is>
       </c>
-      <c r="B36">
-        <v>4</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>Lee County</t>
         </is>
       </c>
-      <c r="B37">
-        <v>2</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,8 +1618,10 @@
           <t>Little River County</t>
         </is>
       </c>
-      <c r="B38">
-        <v>2</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,8 +1650,10 @@
           <t>Logan County</t>
         </is>
       </c>
-      <c r="B39">
-        <v>5</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1604,8 +1682,10 @@
           <t>Lonoke County</t>
         </is>
       </c>
-      <c r="B40">
-        <v>7</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1634,8 +1714,10 @@
           <t>Madison County</t>
         </is>
       </c>
-      <c r="B41">
-        <v>5</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1664,8 +1746,10 @@
           <t>Marion County</t>
         </is>
       </c>
-      <c r="B42">
-        <v>1</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1694,8 +1778,10 @@
           <t>Miller County</t>
         </is>
       </c>
-      <c r="B43">
-        <v>5</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1724,8 +1810,10 @@
           <t>Mississippi County</t>
         </is>
       </c>
-      <c r="B44">
-        <v>5</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1754,8 +1842,10 @@
           <t>Monroe County</t>
         </is>
       </c>
-      <c r="B45">
-        <v>3</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1784,8 +1874,10 @@
           <t>Newton County</t>
         </is>
       </c>
-      <c r="B46">
-        <v>1</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1814,8 +1906,10 @@
           <t>Ouachita County</t>
         </is>
       </c>
-      <c r="B47">
-        <v>4</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1844,8 +1938,10 @@
           <t>Perry County</t>
         </is>
       </c>
-      <c r="B48">
-        <v>1</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1874,8 +1970,10 @@
           <t>Phillips County</t>
         </is>
       </c>
-      <c r="B49">
-        <v>9</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1904,8 +2002,10 @@
           <t>Poinsett County</t>
         </is>
       </c>
-      <c r="B50">
-        <v>2</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1934,8 +2034,10 @@
           <t>Polk County</t>
         </is>
       </c>
-      <c r="B51">
-        <v>4</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1964,8 +2066,10 @@
           <t>Pope County</t>
         </is>
       </c>
-      <c r="B52">
-        <v>18</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1994,8 +2098,10 @@
           <t>Pulaski County</t>
         </is>
       </c>
-      <c r="B53">
-        <v>205</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2024,8 +2130,10 @@
           <t>Randolph County</t>
         </is>
       </c>
-      <c r="B54">
-        <v>12</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2054,8 +2162,10 @@
           <t>Saline County</t>
         </is>
       </c>
-      <c r="B55">
-        <v>25</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2084,8 +2194,10 @@
           <t>Scott County</t>
         </is>
       </c>
-      <c r="B56">
-        <v>3</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2114,8 +2226,10 @@
           <t>Searcy County</t>
         </is>
       </c>
-      <c r="B57">
-        <v>3</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2144,8 +2258,10 @@
           <t>Sebastian County</t>
         </is>
       </c>
-      <c r="B58">
-        <v>49</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2174,8 +2290,10 @@
           <t>Sevier County</t>
         </is>
       </c>
-      <c r="B59">
-        <v>1</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2204,8 +2322,10 @@
           <t>Sharp County</t>
         </is>
       </c>
-      <c r="B60">
-        <v>1</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2234,8 +2354,10 @@
           <t>St. Francis County</t>
         </is>
       </c>
-      <c r="B61">
-        <v>2</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2264,8 +2386,10 @@
           <t>Stone County</t>
         </is>
       </c>
-      <c r="B62">
-        <v>2</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2294,8 +2418,10 @@
           <t>Union County</t>
         </is>
       </c>
-      <c r="B63">
-        <v>11</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2324,8 +2450,10 @@
           <t>Van Buren County</t>
         </is>
       </c>
-      <c r="B64">
-        <v>4</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2354,8 +2482,10 @@
           <t>Washington County</t>
         </is>
       </c>
-      <c r="B65">
-        <v>70</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2384,8 +2514,10 @@
           <t>White County</t>
         </is>
       </c>
-      <c r="B66">
-        <v>22</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2414,8 +2546,10 @@
           <t>Woodruff County</t>
         </is>
       </c>
-      <c r="B67">
-        <v>1</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2444,8 +2578,10 @@
           <t>Yell County</t>
         </is>
       </c>
-      <c r="B68">
-        <v>4</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2474,27 +2610,61 @@
           <t>Prairie County</t>
         </is>
       </c>
-      <c r="B69">
-        <v>0</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>$1,497,047,399</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.13%</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>-20.99%</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>75.21%</t>
         </is>
       </c>
     </row>
@@ -2549,8 +2719,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>188</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2579,8 +2751,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>284</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2609,8 +2783,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B4">
-        <v>209</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2639,8 +2815,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B5">
-        <v>162</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2669,8 +2847,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B6">
-        <v>843</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2744,8 +2924,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>264</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2774,8 +2956,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>199</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2804,8 +2988,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>137</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2834,8 +3020,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>53</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2864,8 +3052,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>130</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2894,8 +3084,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>60</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2924,8 +3116,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>843</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2999,8 +3193,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>51</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3029,8 +3225,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>64</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3059,8 +3257,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>27</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3089,8 +3289,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>79</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3119,8 +3321,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>26</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3149,8 +3353,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>313</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3179,8 +3385,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>6</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3209,8 +3417,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>65</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -3239,8 +3449,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B10">
-        <v>20</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3269,8 +3481,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B11">
-        <v>179</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3299,8 +3513,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B12">
-        <v>13</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3329,8 +3545,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B13">
-        <v>843</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/arkansas_overview.xlsx
+++ b/data/processed/state_overviews/arkansas_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -431,150 +431,150 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkansas County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$2,650,806</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.26%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-18.55%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ashley County</t>
+          <t>Arkansas</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>843</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1,323,823</t>
+          <t>$1,497,047,399</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.96%</t>
+          <t>7.13%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-5.01%</t>
+          <t>-20.99%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>75.21%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Baxter County</t>
+          <t>Arkansas County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$15,950,956</t>
+          <t>$2,650,806</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>14.48%</t>
+          <t>-0.26%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-54.12%</t>
+          <t>-18.55%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>70.59%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Benton County</t>
+          <t>Ashley County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$51,645,457</t>
+          <t>$1,323,823</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.51%</t>
+          <t>6.96%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -584,494 +584,494 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>59.32%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Boone County</t>
+          <t>Baxter County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$37,638,481</t>
+          <t>$15,950,956</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.40%</t>
+          <t>14.48%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-58.37%</t>
+          <t>-54.12%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>87.50%</t>
+          <t>70.59%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bradley County</t>
+          <t>Benton County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>59</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$1,114,328</t>
+          <t>$51,645,457</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16.52%</t>
+          <t>10.51%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-67.24%</t>
+          <t>-5.01%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>59.32%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Calhoun County</t>
+          <t>Boone County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$5,110,397</t>
+          <t>$37,638,481</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.32%</t>
+          <t>10.40%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-42.40%</t>
+          <t>-58.37%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>87.50%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Carroll County</t>
+          <t>Bradley County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$3,785,852</t>
+          <t>$1,114,328</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>18.79%</t>
+          <t>16.52%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-3.18%</t>
+          <t>-67.24%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>53.85%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Chicot County</t>
+          <t>Calhoun County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$13,114,445</t>
+          <t>$5,110,397</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12.74%</t>
+          <t>4.32%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-0.29%</t>
+          <t>-42.40%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Clark County</t>
+          <t>Carroll County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$11,771,968</t>
+          <t>$3,785,852</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-0.97%</t>
+          <t>18.79%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-9.93%</t>
+          <t>-3.18%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>53.85%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Clay County</t>
+          <t>Chicot County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$8,375,565</t>
+          <t>$13,114,445</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-12.57%</t>
+          <t>12.74%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-35.64%</t>
+          <t>-0.29%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cleburne County</t>
+          <t>Clark County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$1,190,031</t>
+          <t>$11,771,968</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>-0.97%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-48.97%</t>
+          <t>-9.93%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Columbia County</t>
+          <t>Clay County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$12,227,919</t>
+          <t>$8,375,565</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>6.20%</t>
+          <t>-12.57%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-62.48%</t>
+          <t>-35.64%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>90.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Conway County</t>
+          <t>Cleburne County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$6,172,790</t>
+          <t>$1,190,031</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13.59%</t>
+          <t>0.13%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-19.45%</t>
+          <t>-48.97%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Craighead County</t>
+          <t>Columbia County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$98,292,182</t>
+          <t>$12,227,919</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.35%</t>
+          <t>6.20%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-43.06%</t>
+          <t>-62.48%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>82.14%</t>
+          <t>90.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Crawford County</t>
+          <t>Conway County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$9,898,915</t>
+          <t>$6,172,790</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>14.14%</t>
+          <t>13.59%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-32.57%</t>
+          <t>-19.45%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>62.50%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Crittenden County</t>
+          <t>Craighead County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$15,196,774</t>
+          <t>$98,292,182</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13.89%</t>
+          <t>4.35%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-24.45%</t>
+          <t>-43.06%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>90.00%</t>
+          <t>82.14%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Cross County</t>
+          <t>Crawford County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$5,163,965</t>
+          <t>$9,898,915</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5.67%</t>
+          <t>14.14%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-22.40%</t>
+          <t>-32.57%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Desha County</t>
+          <t>Crittenden County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$4,482,474</t>
+          <t>$15,196,774</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-2.17%</t>
+          <t>13.89%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-7.21%</t>
+          <t>-24.45%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>90.00%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Drew County</t>
+          <t>Cross County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1081,17 +1081,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$15,766,544</t>
+          <t>$5,163,965</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>15.38%</t>
+          <t>5.67%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-5.64%</t>
+          <t>-22.40%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1103,155 +1103,155 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Faulkner County</t>
+          <t>Desha County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$41,082,636</t>
+          <t>$4,482,474</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.65%</t>
+          <t>-2.17%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-31.26%</t>
+          <t>-7.21%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>76.19%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Franklin County</t>
+          <t>Drew County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$555,916</t>
+          <t>$15,766,544</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>17.49%</t>
+          <t>15.38%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-69.53%</t>
+          <t>-5.64%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fulton County</t>
+          <t>Faulkner County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$1,443,565</t>
+          <t>$41,082,636</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>27.68%</t>
+          <t>4.65%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-68.80%</t>
+          <t>-31.26%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>76.19%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Garland County</t>
+          <t>Franklin County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$56,161,273</t>
+          <t>$555,916</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2.27%</t>
+          <t>17.49%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-31.87%</t>
+          <t>-69.53%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>88.89%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Grant County</t>
+          <t>Fulton County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$1,010,987</t>
+          <t>$1,443,565</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>22.04%</t>
+          <t>27.68%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-55.53%</t>
+          <t>-68.80%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1263,103 +1263,103 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Greene County</t>
+          <t>Garland County</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$10,100,370</t>
+          <t>$56,161,273</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-1.97%</t>
+          <t>2.27%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-8.27%</t>
+          <t>-31.87%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>88.89%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Hempstead County</t>
+          <t>Grant County</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$1,125,173</t>
+          <t>$1,010,987</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>13.47%</t>
+          <t>22.04%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.58%</t>
+          <t>-55.53%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Hot Spring County</t>
+          <t>Greene County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$288,240</t>
+          <t>$10,100,370</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>25.63%</t>
+          <t>-1.97%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4.81%</t>
+          <t>-8.27%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>40.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Howard County</t>
+          <t>Hempstead County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1369,81 +1369,81 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$479,481</t>
+          <t>$1,125,173</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5.04%</t>
+          <t>13.47%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-23.99%</t>
+          <t>2.58%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Independence County</t>
+          <t>Hot Spring County</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$48,886,580</t>
+          <t>$288,240</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2.57%</t>
+          <t>25.63%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-29.11%</t>
+          <t>4.81%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>84.21%</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Izard County</t>
+          <t>Howard County</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$571,934</t>
+          <t>$479,481</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-35.52%</t>
+          <t>5.04%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-60.05%</t>
+          <t>-23.99%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1455,91 +1455,91 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Jackson County</t>
+          <t>Independence County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$429,062</t>
+          <t>$48,886,580</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>17.06%</t>
+          <t>2.57%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>9.02%</t>
+          <t>-29.11%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>84.21%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Izard County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$51,757,614</t>
+          <t>$571,934</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>13.00%</t>
+          <t>-35.52%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-40.07%</t>
+          <t>-60.05%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>86.96%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Johnson County</t>
+          <t>Jackson County</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$11,157,376</t>
+          <t>$429,062</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>8.57%</t>
+          <t>17.06%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-0.81%</t>
+          <t>9.02%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1551,59 +1551,59 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Lawrence County</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$7,255,136</t>
+          <t>$51,757,614</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1.59%</t>
+          <t>13.00%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-51.62%</t>
+          <t>-40.07%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>86.96%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Lee County</t>
+          <t>Johnson County</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$3,424,236</t>
+          <t>$11,157,376</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>26.02%</t>
+          <t>8.57%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-11.64%</t>
+          <t>-0.81%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1615,103 +1615,103 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Little River County</t>
+          <t>Lawrence County</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$1,692,314</t>
+          <t>$7,255,136</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>46.37%</t>
+          <t>1.59%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.63%</t>
+          <t>-51.62%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Logan County</t>
+          <t>Lee County</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$420,193</t>
+          <t>$3,424,236</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3.53%</t>
+          <t>26.02%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-11.55%</t>
+          <t>-11.64%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Lonoke County</t>
+          <t>Little River County</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$7,022,415</t>
+          <t>$1,692,314</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>11.69%</t>
+          <t>46.37%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-54.20%</t>
+          <t>4.63%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Madison County</t>
+          <t>Logan County</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1721,49 +1721,49 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$1,495,553</t>
+          <t>$420,193</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-3.10%</t>
+          <t>3.53%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-16.09%</t>
+          <t>-11.55%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Marion County</t>
+          <t>Lonoke County</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$217,277</t>
+          <t>$7,022,415</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.66%</t>
+          <t>11.69%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-73.70%</t>
+          <t>-54.20%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1775,7 +1775,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Miller County</t>
+          <t>Madison County</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1785,157 +1785,157 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$5,069,625</t>
+          <t>$1,495,553</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>13.27%</t>
+          <t>-3.10%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-6.02%</t>
+          <t>-16.09%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mississippi County</t>
+          <t>Marion County</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$1,137,443</t>
+          <t>$217,277</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>14.67%</t>
+          <t>1.66%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-39.24%</t>
+          <t>-73.70%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Monroe County</t>
+          <t>Miller County</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$2,732,640</t>
+          <t>$5,069,625</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>6.41%</t>
+          <t>13.27%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-30.53%</t>
+          <t>-6.02%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Newton County</t>
+          <t>Mississippi County</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$93,675</t>
+          <t>$1,137,443</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4.94%</t>
+          <t>14.67%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2.44%</t>
+          <t>-39.24%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Ouachita County</t>
+          <t>Monroe County</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$9,429,842</t>
+          <t>$2,732,640</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>9.16%</t>
+          <t>6.41%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-19.84%</t>
+          <t>-30.53%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Perry County</t>
+          <t>Newton County</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1945,657 +1945,657 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$23,313</t>
+          <t>$93,675</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.26%</t>
+          <t>4.94%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-14.44%</t>
+          <t>2.44%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Phillips County</t>
+          <t>Ouachita County</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$30,258,121</t>
+          <t>$9,429,842</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-0.28%</t>
+          <t>9.16%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-70.71%</t>
+          <t>-19.84%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Poinsett County</t>
+          <t>Perry County</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$101,917</t>
+          <t>$23,313</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>7.28%</t>
+          <t>1.26%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-20.87%</t>
+          <t>-14.44%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Polk County</t>
+          <t>Phillips County</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$6,871,229</t>
+          <t>$30,258,121</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8.08%</t>
+          <t>-0.28%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-14.60%</t>
+          <t>-70.71%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Pope County</t>
+          <t>Poinsett County</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$14,138,057</t>
+          <t>$101,917</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-4.63%</t>
+          <t>7.28%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-59.66%</t>
+          <t>-20.87%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Pulaski County</t>
+          <t>Polk County</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$562,877,950</t>
+          <t>$6,871,229</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>5.82%</t>
+          <t>8.08%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-24.93%</t>
+          <t>-14.60%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>77.56%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Randolph County</t>
+          <t>Pope County</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$15,405,407</t>
+          <t>$14,138,057</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3.94%</t>
+          <t>-4.63%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-47.43%</t>
+          <t>-59.66%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>91.67%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Saline County</t>
+          <t>Pulaski County</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>205</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$52,744,336</t>
+          <t>$562,877,950</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>12.82%</t>
+          <t>5.82%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-8.20%</t>
+          <t>-24.93%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>77.56%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Scott County</t>
+          <t>Randolph County</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$786,361</t>
+          <t>$15,405,407</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>12.53%</t>
+          <t>3.94%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-80.19%</t>
+          <t>-47.43%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>91.67%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Searcy County</t>
+          <t>Saline County</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$10,013,555</t>
+          <t>$52,744,336</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>29.50%</t>
+          <t>12.82%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-7.03%</t>
+          <t>-8.20%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sebastian County</t>
+          <t>Scott County</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$74,958,045</t>
+          <t>$786,361</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>9.32%</t>
+          <t>12.53%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-13.78%</t>
+          <t>-80.19%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>61.22%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sevier County</t>
+          <t>Searcy County</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$154,000</t>
+          <t>$10,013,555</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>6.77%</t>
+          <t>29.50%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2.59%</t>
+          <t>-7.03%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sharp County</t>
+          <t>Sebastian County</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$47,955</t>
+          <t>$74,958,045</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>17.30%</t>
+          <t>9.32%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>7.11%</t>
+          <t>-13.78%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>61.22%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>St. Francis County</t>
+          <t>Sevier County</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$432,594</t>
+          <t>$154,000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>6.77%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-30.71%</t>
+          <t>2.59%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Stone County</t>
+          <t>Sharp County</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$211,703</t>
+          <t>$47,955</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>27.06%</t>
+          <t>17.30%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-19.82%</t>
+          <t>7.11%</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Union County</t>
+          <t>St. Francis County</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$10,042,823</t>
+          <t>$432,594</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>10.17%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-19.00%</t>
+          <t>-30.71%</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>81.82%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Van Buren County</t>
+          <t>Stone County</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$1,059,847</t>
+          <t>$211,703</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>11.12%</t>
+          <t>27.06%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-31.92%</t>
+          <t>-19.82%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Washington County</t>
+          <t>Union County</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$71,184,467</t>
+          <t>$10,042,823</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>7.86%</t>
+          <t>10.17%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-14.28%</t>
+          <t>-19.00%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>72.86%</t>
+          <t>81.82%</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>White County</t>
+          <t>Van Buren County</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$4,288,029</t>
+          <t>$1,059,847</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>8.61%</t>
+          <t>11.12%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-1.35%</t>
+          <t>-31.92%</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Woodruff County</t>
+          <t>Washington County</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>70</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$35,482,093</t>
+          <t>$71,184,467</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10.72%</t>
+          <t>7.86%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-15.32%</t>
+          <t>-14.28%</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>72.86%</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Yell County</t>
+          <t>White County</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$20,051,369</t>
+          <t>$4,288,029</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>6.83%</t>
+          <t>8.61%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-37.76%</t>
+          <t>-1.35%</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2607,64 +2607,64 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Prairie County</t>
+          <t>Woodruff County</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$35,482,093</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>10.72%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-15.32%</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Yell County</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>843</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$1,497,047,399</t>
+          <t>$20,051,369</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>7.13%</t>
+          <t>6.83%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-20.99%</t>
+          <t>-37.76%</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>75.21%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2684,192 +2684,224 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$376,052,048</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.33%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-39.00%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>84.57%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>Arkansas</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>843</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$662,226,198</t>
+          <t>$1,497,047,399</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.96%</t>
+          <t>7.13%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-22.42%</t>
+          <t>-20.99%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>75.35%</t>
+          <t>75.21%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$212,895,289</t>
+          <t>$376,052,048</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.64%</t>
+          <t>4.33%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-10.68%</t>
+          <t>-39.00%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>65.55%</t>
+          <t>84.57%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>284</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$245,873,864</t>
+          <t>$662,226,198</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.86%</t>
+          <t>6.96%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-21.10%</t>
+          <t>-22.42%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>76.54%</t>
+          <t>75.35%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>843</t>
+          <t>209</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$1,497,047,399</t>
+          <t>$212,895,289</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.13%</t>
+          <t>9.64%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-20.99%</t>
+          <t>-10.68%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>75.21%</t>
+          <t>65.55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4th Congressional district</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$245,873,864</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.86%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-21.10%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>76.54%</t>
         </is>
       </c>
     </row>
@@ -2894,34 +2926,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2953,128 +2985,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$193,671,460</t>
+          <t>$1,073,250,123</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.83%</t>
+          <t>3.64%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-16.85%</t>
+          <t>-10.33%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>72.36%</t>
+          <t>76.15%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>199</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$36,511,342</t>
+          <t>$193,671,460</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.90%</t>
+          <t>7.83%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-23.15%</t>
+          <t>-16.85%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>75.91%</t>
+          <t>72.36%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>137</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$151,122,361</t>
+          <t>$36,511,342</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.32%</t>
+          <t>5.90%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-8.86%</t>
+          <t>-23.15%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>84.91%</t>
+          <t>75.91%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$1,073,250,123</t>
+          <t>$151,122,361</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.64%</t>
+          <t>9.32%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-10.33%</t>
+          <t>-8.86%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>76.15%</t>
+          <t>84.91%</t>
         </is>
       </c>
     </row>
@@ -3163,34 +3195,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3222,7 +3254,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -3254,7 +3286,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -3286,7 +3318,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -3350,7 +3382,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -3382,7 +3414,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -3414,7 +3446,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -3446,7 +3478,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -3478,64 +3510,64 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$451,315,709</t>
+          <t>$75,680,112</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.66%</t>
+          <t>4.22%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-21.73%</t>
+          <t>-22.07%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>76.54%</t>
+          <t>76.92%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>179</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$75,680,112</t>
+          <t>$451,315,709</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.22%</t>
+          <t>5.66%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-22.07%</t>
+          <t>-21.73%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>76.92%</t>
+          <t>76.54%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/arkansas_overview.xlsx
+++ b/data/processed/state_overviews/arkansas_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>75.21%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>843</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$1,497,047,399</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>7.13%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-20.99%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>75.21%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>75.21%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>843</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,497,047,399</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.13%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-20.99%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>75.21%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$2,650,806</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>-0.26%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-18.55%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$1,323,823</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>6.96%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-5.01%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>70.59%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$15,950,956</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>14.48%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-54.12%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>70.59%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>59.32%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>59</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$51,645,457</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>10.51%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-5.01%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>59.32%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$37,638,481</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>10.40%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-58.37%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$1,114,328</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>16.52%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-67.24%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$5,110,397</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>4.32%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-42.40%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>53.85%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$3,785,852</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>18.79%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-3.18%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>53.85%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$13,114,445</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>12.74%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-0.29%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$11,771,968</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>-0.97%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-9.93%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$8,375,565</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>-12.57%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-35.64%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$1,190,031</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>0.13%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-48.97%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>90.00%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$12,227,919</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>6.20%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-62.48%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>90.00%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$6,172,790</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>13.59%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-19.45%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>62.50%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>82.14%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$98,292,182</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>4.35%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-43.06%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>82.14%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$9,898,915</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>14.14%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-32.57%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>90.00%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$15,196,774</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>13.89%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-24.45%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>90.00%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$5,163,965</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>5.67%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-22.40%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$4,482,474</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>-2.17%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-7.21%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$15,766,544</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>15.38%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-5.64%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>76.19%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$41,082,636</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>4.65%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-31.26%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>76.19%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$555,916</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>17.49%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-69.53%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$1,443,565</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>27.68%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-68.80%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>88.89%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$56,161,273</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2.27%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-31.87%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>88.89%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$1,010,987</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>22.04%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-55.53%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$10,100,370</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>-1.97%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>-8.27%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$1,125,173</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>13.47%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>2.58%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$288,240</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>25.63%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>4.81%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$479,481</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>5.04%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-23.99%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>84.21%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$48,886,580</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2.57%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>-29.11%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>84.21%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$571,934</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>-35.52%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-60.05%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$429,062</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>17.06%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>9.02%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>86.96%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$51,757,614</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>13.00%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-40.07%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>86.96%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$11,157,376</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>8.57%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>-0.81%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$7,255,136</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1.59%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-51.62%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$3,424,236</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>26.02%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>-11.64%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$1,692,314</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>46.37%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>4.63%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$420,193</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>3.53%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-11.55%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1748,27 +1748,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>$7,022,415</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>11.69%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>-54.20%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>$1,495,553</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>-3.10%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>-16.09%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>$217,277</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1.66%</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>-73.70%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>$5,069,625</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>13.27%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>-6.02%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>$1,137,443</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>14.67%</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>-39.24%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -1908,27 +1908,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>$2,732,640</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>6.41%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>-30.53%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1940,27 +1940,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>$93,675</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>4.94%</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>2.44%</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1972,27 +1972,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>$9,429,842</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>9.16%</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>-19.84%</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2004,27 +2004,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>$23,313</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1.26%</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>-14.44%</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2036,27 +2036,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>$30,258,121</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>-0.28%</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>-70.71%</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2068,27 +2068,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>$101,917</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>7.28%</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>-20.87%</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2100,27 +2100,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>$6,871,229</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>8.08%</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>-14.60%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2132,27 +2132,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>$14,138,057</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>-4.63%</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>-59.66%</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -2164,27 +2164,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>77.56%</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>205</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>$562,877,950</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>5.82%</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>-24.93%</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>77.56%</t>
         </is>
       </c>
     </row>
@@ -2196,27 +2196,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>91.67%</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>$15,405,407</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>3.94%</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>-47.43%</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>91.67%</t>
         </is>
       </c>
     </row>
@@ -2228,27 +2228,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>$52,744,336</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>12.82%</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>-8.20%</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -2260,27 +2260,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>$786,361</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>12.53%</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>-80.19%</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2292,27 +2292,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>$10,013,555</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>29.50%</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>-7.03%</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2324,27 +2324,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>61.22%</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>49</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>$74,958,045</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>9.32%</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>-13.78%</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>61.22%</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>$154,000</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>6.77%</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>2.59%</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2388,27 +2388,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>$47,955</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>17.30%</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>7.11%</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2420,27 +2420,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>$432,594</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>3.46%</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>-30.71%</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2452,27 +2452,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>$211,703</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>27.06%</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>-19.82%</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2484,27 +2484,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>81.82%</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>$10,042,823</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>10.17%</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>-19.00%</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>81.82%</t>
         </is>
       </c>
     </row>
@@ -2516,27 +2516,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>$1,059,847</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>11.12%</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>-31.92%</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2548,27 +2548,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>72.86%</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>70</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>$71,184,467</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>7.86%</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>-14.28%</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>72.86%</t>
         </is>
       </c>
     </row>
@@ -2580,27 +2580,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>$4,288,029</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>8.61%</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>-1.35%</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2612,27 +2612,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>$35,482,093</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>10.72%</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>-15.32%</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2644,27 +2644,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>$20,051,369</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>6.83%</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>-37.76%</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2689,27 +2689,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -2721,27 +2721,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -2753,155 +2753,155 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>75.21%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>843</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,497,047,399</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.13%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-20.99%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>75.21%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>84.57%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>188</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$376,052,048</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>4.33%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-39.00%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>84.57%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>75.35%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>284</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$662,226,198</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>6.96%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-22.42%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>75.35%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>65.55%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>209</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$212,895,289</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>9.64%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-10.68%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>65.55%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>76.54%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>162</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$245,873,864</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>6.86%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-21.10%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>76.54%</t>
         </is>
       </c>
     </row>
@@ -2926,187 +2926,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>74.24%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>264</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$35,290,606</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.28%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-33.81%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>74.24%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>72.36%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1,073,250,123</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.64%</t>
+          <t>$193,671,460</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-10.33%</t>
+          <t>7.83%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>76.15%</t>
+          <t>-16.85%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>75.91%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$193,671,460</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.83%</t>
+          <t>$36,511,342</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-16.85%</t>
+          <t>5.90%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>72.36%</t>
+          <t>-23.15%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>84.91%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$36,511,342</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.90%</t>
+          <t>$151,122,361</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-23.15%</t>
+          <t>9.32%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>75.91%</t>
+          <t>-8.86%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>76.15%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$151,122,361</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.32%</t>
+          <t>$1,073,250,123</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-8.86%</t>
+          <t>3.64%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>84.91%</t>
+          <t>-10.33%</t>
         </is>
       </c>
     </row>
@@ -3118,27 +3118,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>76.67%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>60</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$7,201,507</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>25.61%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-35.58%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>76.67%</t>
         </is>
       </c>
     </row>
@@ -3150,27 +3150,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>75.21%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>843</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$1,497,047,399</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>7.13%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-20.99%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>75.21%</t>
         </is>
       </c>
     </row>
@@ -3195,155 +3195,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>64.71%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>51</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$27,443,485</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>12.83%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-14.05%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>64.71%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>79.69%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>64</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$230,598,553</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>6.80%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-17.66%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>79.69%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>51.85%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$39,289,612</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>14.94%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-0.62%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>51.85%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>77.22%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>79</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$164,202,542</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>9.71%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-10.92%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>77.22%</t>
         </is>
       </c>
     </row>
@@ -3355,219 +3355,219 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>65.38%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$87,188,411</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>4.78%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-8.49%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>65.38%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>76.36%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>313</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$251,651,187</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>5.43%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-28.57%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>76.36%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$77,123,238</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2.13%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-6.02%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>86.15%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>65</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$86,924,026</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>9.48%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-39.24%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>86.15%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$5,630,524</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>11.28%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-10.09%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>76.54%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$75,680,112</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4.22%</t>
+          <t>$451,315,709</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-22.07%</t>
+          <t>5.66%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>76.92%</t>
+          <t>-21.73%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>76.92%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$451,315,709</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.66%</t>
+          <t>$75,680,112</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-21.73%</t>
+          <t>4.22%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>76.54%</t>
+          <t>-22.07%</t>
         </is>
       </c>
     </row>
@@ -3579,27 +3579,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>75.21%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>843</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$1,497,047,399</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>7.13%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-20.99%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>75.21%</t>
         </is>
       </c>
     </row>
